--- a/medicine/Psychotrope/Chawan/Chawan.xlsx
+++ b/medicine/Psychotrope/Chawan/Chawan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un chawan (茶碗?, « bol de thé ») est un bol utilisé pour la préparation et la consommation du thé. Il existe de nombreux types de chawan utilisés dans la cérémonie du thé, et le choix de leur utilisation dépend de nombreuses considérations. En plus d'être utilisé pour le thé chinois, il est utilisé pour le matcha (thé vert en poudre) dans la cérémonie japonaise du thé.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,9 +554,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Japon
-Karamono
-Karamono (唐物?) se réfère généralement à des styles de chawan originaires de Chine. Ces bols sont conçus pour boire du thé. Il est à noter que dans tous les cas, les noms sont japonais.
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Karamono</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Karamono (唐物?) se réfère généralement à des styles de chawan originaires de Chine. Ces bols sont conçus pour boire du thé. Il est à noter que dans tous les cas, les noms sont japonais.
 Tenmoku (天目?, porcelaine Jian)
 Haikatsugi
 Yohen
@@ -551,9 +573,47 @@
 Taihisan
 Seiji (青磁?, céladon)
 Hakuji (白磁?, blanc de Chine)
-Sometsuki (porcelaine bleue et blanche)
-Kōraimono
-Kōraimono (高麗物?) se réfère généralement à des styles de chawan originaires de Corée. Les chawan coréens sont d'abord des bols de thé adaptés pour le thé quand ils sont entrés au Japon, un peu comme les bouteilles d'huile chinoises sont devenues des chaki. Les bols coréens étaient appréciés de Sen no Rikyū en raison de leur rude simplicité[2]. 
+Sometsuki (porcelaine bleue et blanche)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chawan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chawan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Styles régionaux et classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Kōraimono</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kōraimono (高麗物?) se réfère généralement à des styles de chawan originaires de Corée. Les chawan coréens sont d'abord des bols de thé adaptés pour le thé quand ils sont entrés au Japon, un peu comme les bouteilles d'huile chinoises sont devenues des chaki. Les bols coréens étaient appréciés de Sen no Rikyū en raison de leur rude simplicité. 
 Iji
 Mishima
 Kaki-no-heta
@@ -573,8 +633,47 @@
 Unkaku
 Wari-kodai
 Iraho
-Wamono
-Wamono (和物?) peut se référer à tout ce qui est traditionnellement japonais, ou fabriqué au Japon. Dans le cas des chawan, il se réfère à des styles développés au Japon.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chawan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chawan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Styles régionaux et classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Wamono</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wamono (和物?) peut se référer à tout ce qui est traditionnellement japonais, ou fabriqué au Japon. Dans le cas des chawan, il se réfère à des styles développés au Japon.  
 Les wamono chawan peuvent encore être répartis par emplacement et par four :
 Provincial
 Karatsu
